--- a/Output/Output.xlsx
+++ b/Output/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,38 +514,6 @@
         <v>76.23999999999999</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Input/ENSAYO1_5.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23276.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>86.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Input/ENSAYO1_6.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>34600.33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>104.95</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
